--- a/src/main/resources/static/velo.xlsx
+++ b/src/main/resources/static/velo.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\odenoblens\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\odenoblens\OneDrive - Manhattan Associates\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{95088353-4B78-48FF-AF4E-DF904E02E502}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="forest" sheetId="1" r:id="rId1"/>
     <sheet name="parcelle_forestiere" sheetId="2" r:id="rId2"/>
     <sheet name="parcelle_cadastrale" sheetId="3" r:id="rId3"/>
     <sheet name="type_peuplement" sheetId="4" r:id="rId4"/>
-    <sheet name="station_forestiere" sheetId="5" r:id="rId5"/>
-    <sheet name="repartition_peuplement" sheetId="6" r:id="rId6"/>
+    <sheet name="essence" sheetId="8" r:id="rId5"/>
+    <sheet name="station_forestiere" sheetId="5" r:id="rId6"/>
+    <sheet name="repartition_peuplement" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="250">
   <si>
     <t>ID</t>
   </si>
@@ -289,15 +291,6 @@
     <t>C1</t>
   </si>
   <si>
-    <t>Station fertile proche d'un cours d'eau</t>
-  </si>
-  <si>
-    <t>sdsdsqdqs</t>
-  </si>
-  <si>
-    <t>gfgfgf</t>
-  </si>
-  <si>
     <t>C2</t>
   </si>
   <si>
@@ -328,15 +321,9 @@
     <t>C9</t>
   </si>
   <si>
-    <t xml:space="preserve">Station assez riche bien et bien drainée </t>
-  </si>
-  <si>
     <t>C10</t>
   </si>
   <si>
-    <t>Station assez pauvre bien drainée</t>
-  </si>
-  <si>
     <t>C11</t>
   </si>
   <si>
@@ -346,9 +333,6 @@
     <t>C13</t>
   </si>
   <si>
-    <t>Station nettement podzolisée à végétation forestière dominante</t>
-  </si>
-  <si>
     <t>C14</t>
   </si>
   <si>
@@ -446,12 +430,397 @@
   </si>
   <si>
     <t>Forest</t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>Châtaignier</t>
+  </si>
+  <si>
+    <t>Chêne</t>
+  </si>
+  <si>
+    <t>Saule</t>
+  </si>
+  <si>
+    <t>Douglas</t>
+  </si>
+  <si>
+    <t>Pin Laricio</t>
+  </si>
+  <si>
+    <t>Mélèze</t>
+  </si>
+  <si>
+    <t>Hêtre</t>
+  </si>
+  <si>
+    <t>Epicéa</t>
+  </si>
+  <si>
+    <t>Pente</t>
+  </si>
+  <si>
+    <t>Exposition</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Roche mère</t>
+  </si>
+  <si>
+    <t>Texture dominante</t>
+  </si>
+  <si>
+    <t>Profondeur du sol</t>
+  </si>
+  <si>
+    <t>Moyenne à forte</t>
+  </si>
+  <si>
+    <t>Est-Sud Est</t>
+  </si>
+  <si>
+    <t>versant et fond de vallon</t>
+  </si>
+  <si>
+    <t>limono argileuse</t>
+  </si>
+  <si>
+    <t>moyenne à bonne</t>
+  </si>
+  <si>
+    <t>granite</t>
+  </si>
+  <si>
+    <t>faible (plateau) à moyenne</t>
+  </si>
+  <si>
+    <t>Plateau à l'Ouest
+Versant et fond de vallon</t>
+  </si>
+  <si>
+    <t>faible(plateau) moyenne à forte</t>
+  </si>
+  <si>
+    <t>Est et partiellement Ouest</t>
+  </si>
+  <si>
+    <t>Plateau (à l'Ouest)
+2 versants composant un petit valln</t>
+  </si>
+  <si>
+    <t>Est</t>
+  </si>
+  <si>
+    <t>Plateau et versant</t>
+  </si>
+  <si>
+    <t>Moyenne</t>
+  </si>
+  <si>
+    <t>Versant et bas de versant</t>
+  </si>
+  <si>
+    <t>faible à forte</t>
+  </si>
+  <si>
+    <t>Plateau à l'Ouest et versant à l'Est</t>
+  </si>
+  <si>
+    <t>Faible</t>
+  </si>
+  <si>
+    <t>Nord</t>
+  </si>
+  <si>
+    <t>Plateau</t>
+  </si>
+  <si>
+    <t>Elements de description</t>
+  </si>
+  <si>
+    <t>Douglas - non éclairci - Hauteur : 25 m et circonférenc: 60 à 130 cm</t>
+  </si>
+  <si>
+    <t>Hêtre (+ Châtaignier) - circonférenc: 90 à 150 cm et hauteur &gt; à 22m</t>
+  </si>
+  <si>
+    <t>Douglas - éclairci -haut: 22m et circ: 60 à 120cm</t>
+  </si>
+  <si>
+    <t>Douglas - couvert clair (80%) - haut: 20 à 22m et circonférence: 50 à 120cm</t>
+  </si>
+  <si>
+    <t>Châtaignier - hauteur: 10 à 14m</t>
+  </si>
+  <si>
+    <t>Châtaignier (+ Hêtre + Douglas et Sapin pectiné) - Hauteur: 14 à 20m et circonférence: 60 à 120 cm</t>
+  </si>
+  <si>
+    <t>petite carrière</t>
+  </si>
+  <si>
+    <t>Châtaignier dépressé - haut: 18 à 20m et circonférence: 40 à 60 cm</t>
+  </si>
+  <si>
+    <t>Châtaignier d'âge moyen - haut: 13 à 15M</t>
+  </si>
+  <si>
+    <t>Châtaignier (+ Hêtre et Sapin pectiné) - Hauteur: 22 à 24m et circonférence: 90 à 160 cm</t>
+  </si>
+  <si>
+    <t>Châteignier - taillis d'âge moyen (haut: 15m) et réserces âgées de Châtaignier</t>
+  </si>
+  <si>
+    <t>Chêne rouge d'Amérique - dépressé - haut: 14 à 16 m et circonférence 30 à 50 cm</t>
+  </si>
+  <si>
+    <t>carrière (laurier et Saule)</t>
+  </si>
+  <si>
+    <t>Châtaignier (+Bouleau) - Hauteur: 8 à 10m</t>
+  </si>
+  <si>
+    <t>Hêtre (+Chêne) - circonférence: 80 à 150 cm couvert clairavec taillis jeune</t>
+  </si>
+  <si>
+    <t>Douglas - circonférence: 40 à 60cm - hauteur: 12 à 14m</t>
+  </si>
+  <si>
+    <t>Mélèze (+Séquoia) - circonférence: 40 à 100cm</t>
+  </si>
+  <si>
+    <t>Epicéa de Sitka - hauteur: 12 à 14m et circonférence: 20 à 50 cm</t>
+  </si>
+  <si>
+    <t>Châtaignier - Hauteur: 10 à 12m (trapu)</t>
+  </si>
+  <si>
+    <t>quelques Chênes et Bouleau épars (- de 30%)</t>
+  </si>
+  <si>
+    <t>Hêtre assez clair (+ Chêne et Châtaignier) - circonférence: 80 à 150cm</t>
+  </si>
+  <si>
+    <t>Châtaignier (+Bouleau) - Hauteur: 8m</t>
+  </si>
+  <si>
+    <t>Hêtre (+Châtaignier, Chêne et Sapin pectiné) - Hauteur &gt; à 24m et circonférence: 60 à 150cm</t>
+  </si>
+  <si>
+    <t>Châtaignier - âge moyen - Hauteur: 12 à 14m</t>
+  </si>
+  <si>
+    <t>cœur de la carrière Nord</t>
+  </si>
+  <si>
+    <t>Châtaignier (+Hêtre et Chêne) - Taillis d'âge multiple - éclaircie récente - Chêne de circonférence: 80 à 150 cm</t>
+  </si>
+  <si>
+    <t>Châtaignier (+ Chêne et Hêtre) - Futaie âgée (circonférenc: 80 à 150cm)</t>
+  </si>
+  <si>
+    <t>Châtaignier - taillis d'âge moyen (haut: 6 à 12m)</t>
+  </si>
+  <si>
+    <t>Châtaignier (+ Chêne et Hêtre) - Futaie âgée (circonférence: 90 à 190cm)</t>
+  </si>
+  <si>
+    <t>Châtaignier - futaie d'âge moyen - haut: 14 à 16m Taillis jeune (haut: 5 à 10m)</t>
+  </si>
+  <si>
+    <t>Pin laricio (+ Chêne rouge) - haut: 12 à 14m et circonférence: 40 à 60cm</t>
+  </si>
+  <si>
+    <t>Chêne rouge d'Amérique - hauteur: 9 à 12m</t>
+  </si>
+  <si>
+    <t>Mélèze du Japon - futaie claire (70 à 80%) - haut: 16m et circonférence: 40 à 80 cm</t>
+  </si>
+  <si>
+    <t>Châtaignier; hauteur: 7 à 9m et circonférence: 15 à 30cm</t>
+  </si>
+  <si>
+    <t>Chêne (+ Châtaignier et Gêtre); hauteur: 22 à 25m et circonférence: 80 à 150cm</t>
+  </si>
+  <si>
+    <t>Emprise EDF</t>
+  </si>
+  <si>
+    <t>Chêne (+Châtaignier) sur Saule; circonférence: 120 à 150 cm</t>
+  </si>
+  <si>
+    <t>Chêne (+ Châtaignier); hauteur: 14 à 16m et circonférence: 60 à 80 cm - Réserves de Chênes âgés</t>
+  </si>
+  <si>
+    <t>Saume (+Noisetier et Frêne); circonférence: 40 à 70 cm et réserves Peuplier et Merisier âgés (circonférence: 80 à 150cm)</t>
+  </si>
+  <si>
+    <t>Pin laricio - hauteur: 14 à 17m et circonférence: 60 à 110 cm</t>
+  </si>
+  <si>
+    <t>Empruse EDF</t>
+  </si>
+  <si>
+    <t>Douglas (+Mélèze); hauteur: 22 à 24 m et circonférence: 60 à 150cm - quelques chablis</t>
+  </si>
+  <si>
+    <t>Chêne + Châtaignier); hauteur &gt; à 22M et circonférence: 80 à 150 cm</t>
+  </si>
+  <si>
+    <t>Châtaignier d'âge variable; circonférence: 30 à 90 cm</t>
+  </si>
+  <si>
+    <t>Châtaignier (+ chêne) régulier: hauteur: 14 à 16m et circonférence: 40 à 80cm</t>
+  </si>
+  <si>
+    <t>Châtaignier (+ Hêtre) - balivé - circonférence: 80 à 130cm</t>
+  </si>
+  <si>
+    <t>Châtaignier - hauteur: 14 à 16m et circonférence: 40 à 80 cm</t>
+  </si>
+  <si>
+    <t>Châtaignier circonférence: 90 à 150cm et taillis de Châtaignier - circonférence: 40 à 80cm</t>
+  </si>
+  <si>
+    <t>Douglas, circonférence: 80 à 150cm et taillis de Châtaignier</t>
+  </si>
+  <si>
+    <t>Châtaignier d'âge multiple - circonférence: 40 à 90 cm et hauteur: 15 à 17m</t>
+  </si>
+  <si>
+    <t>Châtaignier - taillis de circonférence: 30 à 80cm</t>
+  </si>
+  <si>
+    <t>Châtaignier - taillis de circonférence: 30 à 80cm et réserves de Châtaignier</t>
+  </si>
+  <si>
+    <t>Chêne pédonculé (+Pin sylvestre) - hauteur: 4m (Chêne) et 7m (Pin laricio)</t>
+  </si>
+  <si>
+    <t>Douglas - hauteur: 20 m et circonférence: 50 à 100cm</t>
+  </si>
+  <si>
+    <t>Douglas éclairci - circonférence: 90 à 150 cm et quelques châtaigniers en taillis</t>
+  </si>
+  <si>
+    <t>Epecia de Sitika - Hauteur: 6 à 8m et circonférence: 20 à 30 cm</t>
+  </si>
+  <si>
+    <t>Douglas -hauteur: 14 à 15m et circonférence: 30 à 50cm</t>
+  </si>
+  <si>
+    <t>Châtaignier (+Hêtre et Merisier) - circonférence: 40 à 80cm</t>
+  </si>
+  <si>
+    <t>Pin laricio (+Châtaignier et Bouleau) - Hauteur: 8 à 12m</t>
+  </si>
+  <si>
+    <t>Châtaignier jeune (hauteur: 8 à 10m) avec réserves éparses (Douglas et Séquoia de hauteur: 12m)</t>
+  </si>
+  <si>
+    <t>Châtaignier (+ Hêtre et Bouleau) circonférence: 40 à 90cm - rochers</t>
+  </si>
+  <si>
+    <t>Circonférenc: 40 à 60 cm et hauteur 16 à 17m</t>
+  </si>
+  <si>
+    <t>Taillis de Saule (+ Bouleau) avec réserves de Frêne et Orme (Hauteur: 14m et circonférence: 30 à 50cm)</t>
+  </si>
+  <si>
+    <t>Malèze - futaie claire (70 à 80%) - hauteur : 15m et circonférence: 30 à 70 cm</t>
+  </si>
+  <si>
+    <t>Châtaignier - futaie âgée (circonférence: 60 à 120cm) et taillis jeune (circonférence: 20 à 40cm)</t>
+  </si>
+  <si>
+    <t>Châtaignier - hauteur: 12 à 14m et circonférence: 40 à 70 cm</t>
+  </si>
+  <si>
+    <t>Châtaignier - hauteur: 16m et circonférence: 40 à 70cm</t>
+  </si>
+  <si>
+    <t>Châtaignier - futaie âgée (circonférence: 90 à 180cm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Très épaisse couche d'humus brut- Texture limoneuse à limono-sableuse
+- Hydromorphie - réserve en eau faible à assez bonne selon la profondeur du sol et la charge caillouteuse
+- Acidité très élevée et fertilité faible.
+- Charge caillouteuse importante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Station nettement podzolisée à végétation forestière
+De superficie réduite cette station est implantée sur les versants de l'ancienne carrière proche du hameau des Grands Moulins.
+Peuplement naturel caractéristique: Recrue naturel de Chêne, Bouleau, Sorbier, Châtaignier après coupe ou chablis de Pin - Taillis ou perchis peu vigoureux de Chêne rouvre, Bouleau, Hêtre, Houx avec Pins disséminés et Futaie de Pin maritime ou sylvestre avec feuillus en sous étage (Bouleau, Chêne, Hêtre, Sorbier)
+</t>
+  </si>
+  <si>
+    <t>Houx, Poirier, Fougère aigle, Cruyère ciliée, Callune, Melampyre, Germandrée, Myrtille, Sorbier des oiseleurs, etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Litière épaisse
+- Sol peu épais à superficiel
+- Texture limoneuse à limono-argileuse souvent caillouteuse
+- Alimentation en eau moyenne à bonne selon la profondeur du sol
+- Acidité moyenne à élevée et fertilité faible mais suffisante pour  certaines essences
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Station assez pauvre bien drainée
+Installés en partie supérieure à l'Ouest, principalement sur plateau ou terrain à faible déclivité, les sols peu profonds ont malgré tout un drainage marqué.
+Peuplement naturel caractéristique: Futaie ou mélange Futaie-taillis de Chêne et Hêtre comportant parfaois un peu de Châtaignier, Plantation de conifères (Pin,Douglas) ou de feuillus (Chêne rouge, Châtaignier ou Hêtre)
+</t>
+  </si>
+  <si>
+    <t>Fougère aigle, Jacinthe des bois, Germandrée, Gaillet des rochers, Genêt à balai, Corydole, Nombril de Vénus, Melampyre des prés, Sorbier des oiseuleurs, Plytre élégant, etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Litière peu à moyennement épaisse
+- Sol moyennement profond à profond (+ de 45cm)
+- Texture limoneuse à limono-argileuse
+- Hydromorphie: Bonne réserve en eau, bien drainé
+Acidité assez marquée et richesse minérale satisfaisante
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Station assez riche bien et bien drainée 
+cette station est la plus représentée sur le bois, principalement sur le plateau et les versants. Les sols sont couverts d'une végétation particulière.
+Peuplement naturel caractéristique:
+Futaie mélangée de être et de Chêne avec Houx et If, Taillis de Châtaignier et, Futaie résineuse de Douglas, Mélèze et Epicéa.
+</t>
+  </si>
+  <si>
+    <t>Noisetier, Stellaire holostée, Houx, Fragon, Lierre terrestre, Chèvrefeuille, Jacinthe des bois, Petite Pervenche, Anémone des bois, Sceau de Salomon, Sureau, Sorbier des oiseleurs, etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Humus de type Mull
+- Sol prodfond, riche en substance nutritives
+- Texture limoneuse à limono-argileuse
+- Alementation en eau régulière tout au long de l'année assurée par la nappe phréatique
+- Acidité moyenne à faible
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Station fertile proche d'un cours d'eau
+Ces stations bordent les écoulements naturels (ruisseau) présents. Elles sont installées sur les parties planes plutôt étroites par endroit. Les sols sont assez riches et plutôt hydromorphes. 
+Peuplement naturel caractéristique: Friche boisée ou peuplement spontané de Chêne pédonculé, Frêne, Saule ou Noisetier en proportion variable issu de la colonisation forestière.
+</t>
+  </si>
+  <si>
+    <t>Reine des près, Ortie, Eupatoire à feuille de chanvre, Ail des ours, Mercuriale, Angélique sauvage, Iris fétide, SAule marsault, Bouleau, etc</t>
+  </si>
+  <si>
+    <t>Station Forestière</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -491,18 +860,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="54">
     <dxf>
       <font>
         <b val="0"/>
@@ -537,6 +912,42 @@
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1335,6 +1746,114 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1357,88 +1876,110 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K2" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
-  <autoFilter ref="A1:K2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K2" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+  <autoFilter ref="A1:K2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="ID" dataDxfId="43"/>
-    <tableColumn id="2" name="NAME" dataDxfId="42"/>
-    <tableColumn id="3" name="PROPRIETAIRE" dataDxfId="41"/>
-    <tableColumn id="4" name="SITUATION_GEOGRAPHIQUE" dataDxfId="40"/>
-    <tableColumn id="5" name="ZONAGE_REGLEMENTAIRE" dataDxfId="39"/>
-    <tableColumn id="6" name="DROIT_USAGE" dataDxfId="38"/>
-    <tableColumn id="7" name="REGION_FORESTIERE" dataDxfId="37"/>
-    <tableColumn id="8" name="RELIEF" dataDxfId="36"/>
-    <tableColumn id="9" name="CLIMAT" dataDxfId="35"/>
-    <tableColumn id="10" name="TEMPERATURE" dataDxfId="34"/>
-    <tableColumn id="11" name="GEOLOGIE" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="NAME" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PROPRIETAIRE" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="SITUATION_GEOGRAPHIQUE" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ZONAGE_REGLEMENTAIRE" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="DROIT_USAGE" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="REGION_FORESTIERE" dataDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="RELIEF" dataDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="CLIMAT" dataDxfId="43"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="TEMPERATURE" dataDxfId="42"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="GEOLOGIE" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D10" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
-  <autoFilter ref="A1:D10"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="ID" dataDxfId="30"/>
-    <tableColumn id="2" name="NUMERO" dataDxfId="29"/>
-    <tableColumn id="3" name="PARCELLE_FORESTIERE" dataDxfId="28"/>
-    <tableColumn id="4" name="FOREST" dataDxfId="27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:J10" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+  <autoFilter ref="A1:J10" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="NUMERO" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="PARCELLE_FORESTIERE" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="FOREST" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{98418B41-C27B-4E77-93A5-7BB1DC17E4E8}" name="Pente" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{EAAE0CFE-7833-4DDA-B744-E69E3369164D}" name="Exposition" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{78B8BFED-8E6B-4A2D-8926-5D85A31A705B}" name="Position" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{C8ACF19D-11AB-4C9A-BA3B-B7A9349CD1FF}" name="Roche mère" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{99068A25-A5ED-40AB-AA12-F24D4F8B5CF1}" name="Texture dominante" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{2CEF3E88-3D67-4665-97C8-0334249E9D57}" name="Profondeur du sol" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F38" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="A1:F38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A1:F38" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+  <autoFilter ref="A1:F38" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="24"/>
-    <tableColumn id="2" name="COMMUNE" dataDxfId="23"/>
-    <tableColumn id="3" name="SECTION" dataDxfId="22"/>
-    <tableColumn id="4" name="NUMERO_PARCELLE" dataDxfId="21"/>
-    <tableColumn id="5" name="LIEU_DIT" dataDxfId="20"/>
-    <tableColumn id="6" name="SURFACE" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="ID" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="COMMUNE" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="SECTION" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="NUMERO_PARCELLE" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="LIEU_DIT" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="SURFACE" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:B11" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:B11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="A1:B11" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A1:B11" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="ID" dataDxfId="16"/>
-    <tableColumn id="2" name="NAME" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="ID" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="NAME" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:E17" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:E17"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="ID" dataDxfId="12"/>
-    <tableColumn id="2" name="NOM" dataDxfId="11"/>
-    <tableColumn id="3" name="DESCRIPTION" dataDxfId="10"/>
-    <tableColumn id="4" name="CARACTERISTIQUE_SOL" dataDxfId="9"/>
-    <tableColumn id="5" name="PEUPLEMENT_SOL" dataDxfId="8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{37E77B0F-AD36-49C5-A9BB-3EB61B59A89B}" name="Table7" displayName="Table7" ref="A1:B9" totalsRowShown="0">
+  <autoFilter ref="A1:B9" xr:uid="{44E65B46-E1BE-4294-BD6B-C3A5E03B0E7E}"/>
+  <sortState ref="A2:B9">
+    <sortCondition ref="A1:A9"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{B0EDC613-8EBF-45BB-BFED-135FA9E0C436}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{9A8BA57C-2CE9-4570-93AE-51BCE937AE93}" name="Nom"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:F94" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F94"/>
-  <tableColumns count="6">
-    <tableColumn id="6" name="Forest" dataDxfId="0"/>
-    <tableColumn id="1" name="Parcelle_cadastrale" dataDxfId="5"/>
-    <tableColumn id="2" name="Parcelle forestiere" dataDxfId="4"/>
-    <tableColumn id="3" name="unite forestiere" dataDxfId="3"/>
-    <tableColumn id="4" name="Type peuplement" dataDxfId="2"/>
-    <tableColumn id="5" name="essence" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="A1:E17" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:E17" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="ID" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="NOM" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="DESCRIPTION" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="CARACTERISTIQUE_SOL" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="PEUPLEMENT_SOL" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table6" displayName="Table6" ref="A1:H94" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H94" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <tableColumns count="8">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Forest" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Parcelle_cadastrale" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Parcelle forestiere" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="unite forestiere" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{25BA243B-97F6-4AF3-AAA9-87206F691293}" name="Elements de description" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Type peuplement" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="essence" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{4541B28C-80E6-485B-AD4B-9A5D79CE3AE8}" name="Station Forestière" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1740,16 +2281,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1784,7 +2325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1828,16 +2369,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1850,8 +2391,26 @@
       <c r="D1" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1864,8 +2423,26 @@
       <c r="D2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1878,8 +2455,26 @@
       <c r="D3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="101" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1892,8 +2487,26 @@
       <c r="D4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1906,8 +2519,26 @@
       <c r="D5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1920,8 +2551,26 @@
       <c r="D6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1934,8 +2583,26 @@
       <c r="D7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1948,8 +2615,26 @@
       <c r="D8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1962,8 +2647,26 @@
       <c r="D9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1975,6 +2678,24 @@
       </c>
       <c r="D10" s="2">
         <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1986,19 +2707,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="17.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2018,7 +2739,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2038,7 +2759,7 @@
         <v>0.17780000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2058,7 +2779,7 @@
         <v>6.8400000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2078,7 +2799,7 @@
         <v>0.441</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2098,7 +2819,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2118,7 +2839,7 @@
         <v>0.71050000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2138,7 +2859,7 @@
         <v>0.79249999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2158,7 +2879,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2178,7 +2899,7 @@
         <v>0.28079999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2198,7 +2919,7 @@
         <v>0.23419999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2218,7 +2939,7 @@
         <v>0.50739999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2238,7 +2959,7 @@
         <v>0.24010000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2258,7 +2979,7 @@
         <v>0.30819999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2278,7 +2999,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2298,7 +3019,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2318,7 +3039,7 @@
         <v>0.53480000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2338,7 +3059,7 @@
         <v>0.2591</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2358,7 +3079,7 @@
         <v>0.90810000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2378,7 +3099,7 @@
         <v>0.3483</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2398,7 +3119,7 @@
         <v>0.22370000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2418,7 +3139,7 @@
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2438,7 +3159,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2458,7 +3179,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2478,7 +3199,7 @@
         <v>0.77200000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2498,7 +3219,7 @@
         <v>0.2301</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2518,7 +3239,7 @@
         <v>0.16170000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2538,7 +3259,7 @@
         <v>0.44619999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2558,7 +3279,7 @@
         <v>1.3680000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2578,7 +3299,7 @@
         <v>0.64200000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2598,7 +3319,7 @@
         <v>0.64510000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2618,7 +3339,7 @@
         <v>1.6438999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2638,7 +3359,7 @@
         <v>6.5199999999999994E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2658,7 +3379,7 @@
         <v>0.1807</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2678,7 +3399,7 @@
         <v>0.1807</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2698,7 +3419,7 @@
         <v>0.67549999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2718,7 +3439,7 @@
         <v>0.61129999999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2738,7 +3459,7 @@
         <v>1.5519000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2767,16 +3488,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2784,7 +3505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2792,7 +3513,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2800,7 +3521,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2808,7 +3529,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2816,7 +3537,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2824,7 +3545,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2832,7 +3553,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2840,7 +3561,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2848,7 +3569,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2856,7 +3577,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2873,230 +3594,86 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287277DE-126B-48D0-81A7-81941153CD70}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="B1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="B3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="B5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="B6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="B7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="B8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="B9" t="s">
+        <v>140</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3107,43 +3684,296 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="15.7265625" customWidth="1"/>
+    <col min="4" max="4" width="25.453125" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="376" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" ht="301" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="363.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" ht="409.6" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A94"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.1796875" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" customWidth="1"/>
+    <col min="8" max="8" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3154,16 +3984,22 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="2">
-        <v>3</v>
+        <v>110</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="F2" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -3174,16 +4010,22 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" s="2">
+        <v>111</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F3" s="2">
         <v>5</v>
       </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -3194,14 +4036,20 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" s="2">
+        <v>112</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F4" s="2">
         <v>2</v>
       </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="5"/>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -3212,16 +4060,22 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" s="2">
+        <v>113</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="2">
         <v>5</v>
       </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -3232,16 +4086,22 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" s="2">
+        <v>114</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -3252,16 +4112,22 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="2">
+        <v>115</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F7" s="2">
         <v>4</v>
       </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -3272,16 +4138,22 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="2">
-        <v>4</v>
+        <v>116</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="F8" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="2">
+        <v>4</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -3292,14 +4164,22 @@
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="2">
+        <v>110</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F9" s="2">
         <v>9</v>
       </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="5">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -3310,14 +4190,20 @@
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="2">
+        <v>111</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F10" s="2">
         <v>2</v>
       </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="5"/>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -3328,14 +4214,22 @@
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="2">
+        <v>112</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F11" s="2">
         <v>9</v>
       </c>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="5">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -3346,14 +4240,22 @@
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" s="2">
+        <v>113</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F12" s="2">
         <v>9</v>
       </c>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="5">
+        <v>6</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -3364,14 +4266,20 @@
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E13" s="2">
+        <v>114</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F13" s="2">
         <v>2</v>
       </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="5"/>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -3382,14 +4290,22 @@
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" s="2">
+        <v>115</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F14" s="2">
         <v>9</v>
       </c>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="5">
+        <v>6</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -3400,16 +4316,22 @@
         <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E15" s="2">
+        <v>116</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" s="2">
         <v>5</v>
       </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -3420,16 +4342,22 @@
         <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" s="2">
+        <v>117</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F16" s="2">
         <v>5</v>
       </c>
-      <c r="F16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -3440,16 +4368,22 @@
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E17" s="2">
+        <v>118</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F17" s="2">
         <v>4</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G17" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -3460,16 +4394,22 @@
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E18" s="2">
+        <v>119</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F18" s="2">
         <v>4</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G18" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -3480,14 +4420,22 @@
         <v>3</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E19" s="2">
+        <v>110</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F19" s="2">
         <v>5</v>
       </c>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="5">
+        <v>3</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -3498,14 +4446,22 @@
         <v>3</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" s="2">
+        <v>111</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F20" s="2">
         <v>4</v>
       </c>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="5">
+        <v>3</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -3516,14 +4472,22 @@
         <v>3</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E21" s="2">
+        <v>112</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F21" s="2">
         <v>5</v>
       </c>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="5">
+        <v>3</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>1</v>
       </c>
@@ -3534,14 +4498,22 @@
         <v>3</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" s="2">
+        <v>113</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F22" s="2">
         <v>5</v>
       </c>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="5">
+        <v>3</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>1</v>
       </c>
@@ -3552,14 +4524,22 @@
         <v>3</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23" s="2">
+        <v>114</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F23" s="2">
         <v>6</v>
       </c>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="5">
+        <v>6</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -3570,14 +4550,22 @@
         <v>3</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E24" s="2">
+        <v>115</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F24" s="2">
         <v>5</v>
       </c>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="5">
+        <v>3</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -3588,14 +4576,22 @@
         <v>3</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E25" s="2">
+        <v>116</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F25" s="2">
         <v>6</v>
       </c>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="5">
+        <v>6</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>1</v>
       </c>
@@ -3606,14 +4602,22 @@
         <v>3</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E26" s="2">
+        <v>117</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F26" s="2">
         <v>5</v>
       </c>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="5">
+        <v>3</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>1</v>
       </c>
@@ -3624,14 +4628,22 @@
         <v>3</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E27" s="2">
+        <v>118</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F27" s="2">
         <v>4</v>
       </c>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="5">
+        <v>3</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>1</v>
       </c>
@@ -3642,14 +4654,22 @@
         <v>3</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E28" s="2">
+        <v>119</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F28" s="2">
         <v>4</v>
       </c>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="5">
+        <v>3</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>1</v>
       </c>
@@ -3660,14 +4680,22 @@
         <v>3</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E29" s="2">
+        <v>120</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F29" s="2">
         <v>8</v>
       </c>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="5">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>1</v>
       </c>
@@ -3678,14 +4706,22 @@
         <v>3</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30" s="2">
+        <v>121</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F30" s="2">
         <v>8</v>
       </c>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="5">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>1</v>
       </c>
@@ -3696,14 +4732,22 @@
         <v>4</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E31" s="2">
+        <v>110</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F31" s="2">
         <v>7</v>
       </c>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="5">
+        <v>6</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>1</v>
       </c>
@@ -3714,14 +4758,22 @@
         <v>4</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E32" s="2">
+        <v>111</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F32" s="2">
         <v>9</v>
       </c>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="5">
+        <v>6</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>1</v>
       </c>
@@ -3732,14 +4784,22 @@
         <v>4</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E33" s="2">
+        <v>112</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F33" s="2">
         <v>7</v>
       </c>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="5">
+        <v>7</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>1</v>
       </c>
@@ -3750,14 +4810,22 @@
         <v>4</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E34" s="2">
+        <v>113</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F34" s="2">
         <v>7</v>
       </c>
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="5">
+        <v>6</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>1</v>
       </c>
@@ -3768,14 +4836,22 @@
         <v>4</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E35" s="2">
+        <v>114</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F35" s="2">
         <v>5</v>
       </c>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="5">
+        <v>3</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>1</v>
       </c>
@@ -3786,14 +4862,22 @@
         <v>4</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E36" s="2">
+        <v>115</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F36" s="2">
         <v>6</v>
       </c>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="5">
+        <v>5</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>1</v>
       </c>
@@ -3804,14 +4888,22 @@
         <v>4</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E37" s="2">
+        <v>116</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F37" s="2">
         <v>7</v>
       </c>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="5">
+        <v>6</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>1</v>
       </c>
@@ -3822,14 +4914,22 @@
         <v>4</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E38" s="2">
+        <v>117</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F38" s="2">
         <v>9</v>
       </c>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="5">
+        <v>6</v>
+      </c>
+      <c r="H38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>1</v>
       </c>
@@ -3840,14 +4940,22 @@
         <v>4</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E39" s="2">
+        <v>118</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F39" s="2">
         <v>7</v>
       </c>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="5">
+        <v>6</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>1</v>
       </c>
@@ -3858,14 +4966,22 @@
         <v>4</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E40" s="2">
+        <v>119</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F40" s="2">
         <v>9</v>
       </c>
-      <c r="F40" s="5"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="5">
+        <v>6</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>1</v>
       </c>
@@ -3876,14 +4992,22 @@
         <v>4</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E41" s="2">
+        <v>120</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F41" s="2">
         <v>4</v>
       </c>
-      <c r="F41" s="5"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="5">
+        <v>3</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>1</v>
       </c>
@@ -3894,14 +5018,22 @@
         <v>4</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E42" s="2">
+        <v>121</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F42" s="2">
         <v>4</v>
       </c>
-      <c r="F42" s="5"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="5">
+        <v>3</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>1</v>
       </c>
@@ -3912,14 +5044,22 @@
         <v>4</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E43" s="2">
+        <v>122</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F43" s="2">
         <v>7</v>
       </c>
-      <c r="F43" s="5"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="5">
+        <v>6</v>
+      </c>
+      <c r="H43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>1</v>
       </c>
@@ -3930,14 +5070,22 @@
         <v>4</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E44" s="2">
+        <v>123</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F44" s="2">
         <v>4</v>
       </c>
-      <c r="F44" s="5"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="5">
+        <v>3</v>
+      </c>
+      <c r="H44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>1</v>
       </c>
@@ -3948,14 +5096,20 @@
         <v>4</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E45" s="2">
-        <v>1</v>
-      </c>
-      <c r="F45" s="5"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1</v>
+      </c>
+      <c r="G45" s="5"/>
+      <c r="H45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>1</v>
       </c>
@@ -3966,14 +5120,22 @@
         <v>4</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E46" s="2">
+        <v>125</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F46" s="2">
         <v>4</v>
       </c>
-      <c r="F46" s="5"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="5">
+        <v>4</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>1</v>
       </c>
@@ -3984,14 +5146,22 @@
         <v>4</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E47" s="2">
+        <v>126</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F47" s="2">
         <v>7</v>
       </c>
-      <c r="F47" s="5"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="5">
+        <v>8</v>
+      </c>
+      <c r="H47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>1</v>
       </c>
@@ -4002,14 +5172,22 @@
         <v>4</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E48" s="2">
+        <v>104</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F48" s="2">
         <v>5</v>
       </c>
-      <c r="F48" s="5"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="5">
+        <v>3</v>
+      </c>
+      <c r="H48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>1</v>
       </c>
@@ -4020,14 +5198,22 @@
         <v>4</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E49" s="2">
+        <v>127</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F49" s="2">
         <v>5</v>
       </c>
-      <c r="F49" s="5"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="5">
+        <v>3</v>
+      </c>
+      <c r="H49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>1</v>
       </c>
@@ -4038,14 +5224,22 @@
         <v>4</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E50" s="2">
+        <v>128</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F50" s="2">
         <v>5</v>
       </c>
-      <c r="F50" s="5"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="5">
+        <v>3</v>
+      </c>
+      <c r="H50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>1</v>
       </c>
@@ -4056,14 +5250,22 @@
         <v>4</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E51" s="2">
+        <v>129</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F51" s="2">
         <v>8</v>
       </c>
-      <c r="F51" s="5"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="5">
+        <v>3</v>
+      </c>
+      <c r="H51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>1</v>
       </c>
@@ -4074,14 +5276,22 @@
         <v>4</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E52" s="2">
+        <v>130</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F52" s="2">
         <v>5</v>
       </c>
-      <c r="F52" s="5"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="5">
+        <v>3</v>
+      </c>
+      <c r="H52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>1</v>
       </c>
@@ -4092,14 +5302,22 @@
         <v>4</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E53" s="2">
+        <v>131</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F53" s="2">
         <v>5</v>
       </c>
-      <c r="F53" s="5"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="5">
+        <v>3</v>
+      </c>
+      <c r="H53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>1</v>
       </c>
@@ -4110,14 +5328,22 @@
         <v>5</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E54" s="2">
+        <v>110</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F54" s="2">
         <v>7</v>
       </c>
-      <c r="F54" s="5"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" s="5">
+        <v>8</v>
+      </c>
+      <c r="H54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>1</v>
       </c>
@@ -4128,14 +5354,20 @@
         <v>5</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E55" s="2">
+        <v>111</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F55" s="2">
         <v>7</v>
       </c>
-      <c r="F55" s="5"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" s="5"/>
+      <c r="H55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>1</v>
       </c>
@@ -4146,14 +5378,20 @@
         <v>5</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E56" s="2">
+        <v>112</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F56" s="2">
         <v>7</v>
       </c>
-      <c r="F56" s="5"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" s="5"/>
+      <c r="H56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>1</v>
       </c>
@@ -4164,14 +5402,22 @@
         <v>6</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E57" s="2">
+        <v>110</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F57" s="2">
         <v>8</v>
       </c>
-      <c r="F57" s="5"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" s="5">
+        <v>1</v>
+      </c>
+      <c r="H57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>1</v>
       </c>
@@ -4182,14 +5428,22 @@
         <v>6</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E58" s="2">
+        <v>111</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F58" s="2">
         <v>7</v>
       </c>
-      <c r="F58" s="5"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" s="5">
+        <v>5</v>
+      </c>
+      <c r="H58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>1</v>
       </c>
@@ -4200,14 +5454,22 @@
         <v>6</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E59" s="2">
+        <v>112</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F59" s="2">
         <v>7</v>
       </c>
-      <c r="F59" s="5"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" s="5">
+        <v>5</v>
+      </c>
+      <c r="H59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>1</v>
       </c>
@@ -4218,14 +5480,22 @@
         <v>6</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E60" s="2">
+        <v>113</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F60" s="2">
         <v>5</v>
       </c>
-      <c r="F60" s="5"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" s="5">
+        <v>3</v>
+      </c>
+      <c r="H60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>1</v>
       </c>
@@ -4236,14 +5506,22 @@
         <v>6</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E61" s="2">
+        <v>114</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F61" s="2">
         <v>4</v>
       </c>
-      <c r="F61" s="5"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61" s="5">
+        <v>3</v>
+      </c>
+      <c r="H61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>1</v>
       </c>
@@ -4254,14 +5532,22 @@
         <v>6</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E62" s="2">
+        <v>115</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F62" s="2">
         <v>5</v>
       </c>
-      <c r="F62" s="5"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" s="5">
+        <v>3</v>
+      </c>
+      <c r="H62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>1</v>
       </c>
@@ -4272,14 +5558,22 @@
         <v>6</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E63" s="2">
+        <v>116</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F63" s="2">
         <v>5</v>
       </c>
-      <c r="F63" s="5"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" s="5">
+        <v>3</v>
+      </c>
+      <c r="H63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>1</v>
       </c>
@@ -4290,14 +5584,22 @@
         <v>6</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E64" s="2">
+        <v>117</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F64" s="2">
         <v>4</v>
       </c>
-      <c r="F64" s="5"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" s="5">
+        <v>3</v>
+      </c>
+      <c r="H64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>1</v>
       </c>
@@ -4308,14 +5610,20 @@
         <v>6</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E65" s="2">
+        <v>118</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F65" s="2">
         <v>2</v>
       </c>
-      <c r="F65" s="5"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" s="5"/>
+      <c r="H65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>1</v>
       </c>
@@ -4326,14 +5634,20 @@
         <v>6</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E66" s="2">
+        <v>119</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F66" s="2">
         <v>3</v>
       </c>
-      <c r="F66" s="5"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66" s="5"/>
+      <c r="H66" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>1</v>
       </c>
@@ -4344,14 +5658,22 @@
         <v>6</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E67" s="2">
+        <v>120</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F67" s="2">
         <v>10</v>
       </c>
-      <c r="F67" s="5"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67" s="5">
+        <v>9</v>
+      </c>
+      <c r="H67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>1</v>
       </c>
@@ -4362,14 +5684,22 @@
         <v>6</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E68" s="2">
+        <v>121</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F68" s="2">
         <v>8</v>
       </c>
-      <c r="F68" s="5"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" s="5">
+        <v>3</v>
+      </c>
+      <c r="H68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>1</v>
       </c>
@@ -4380,14 +5710,22 @@
         <v>6</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E69" s="2">
+        <v>122</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F69" s="2">
         <v>5</v>
       </c>
-      <c r="F69" s="5"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" s="5">
+        <v>8</v>
+      </c>
+      <c r="H69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>1</v>
       </c>
@@ -4398,14 +5736,20 @@
         <v>6</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E70" s="2">
+        <v>123</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F70" s="2">
         <v>2</v>
       </c>
-      <c r="F70" s="5"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70" s="5"/>
+      <c r="H70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>1</v>
       </c>
@@ -4416,14 +5760,22 @@
         <v>6</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E71" s="2">
+        <v>124</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F71" s="2">
         <v>8</v>
       </c>
-      <c r="F71" s="5"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71" s="5">
+        <v>3</v>
+      </c>
+      <c r="H71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>1</v>
       </c>
@@ -4434,14 +5786,22 @@
         <v>6</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E72" s="2">
+        <v>125</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F72" s="2">
         <v>7</v>
       </c>
-      <c r="F72" s="5"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72" s="5">
+        <v>7</v>
+      </c>
+      <c r="H72" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>1</v>
       </c>
@@ -4452,14 +5812,22 @@
         <v>6</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E73" s="2">
+        <v>126</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F73" s="2">
         <v>7</v>
       </c>
-      <c r="F73" s="5"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73" s="5">
+        <v>8</v>
+      </c>
+      <c r="H73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>1</v>
       </c>
@@ -4470,14 +5838,22 @@
         <v>6</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E74" s="2">
+        <v>104</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F74" s="2">
         <v>7</v>
       </c>
-      <c r="F74" s="5"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74" s="5">
+        <v>6</v>
+      </c>
+      <c r="H74" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>1</v>
       </c>
@@ -4488,14 +5864,22 @@
         <v>7</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E75" s="2">
+        <v>110</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F75" s="2">
         <v>8</v>
       </c>
-      <c r="F75" s="5"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75" s="5">
+        <v>3</v>
+      </c>
+      <c r="H75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>1</v>
       </c>
@@ -4506,14 +5890,22 @@
         <v>7</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E76" s="2">
+        <v>111</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F76" s="2">
         <v>5</v>
       </c>
-      <c r="F76" s="5"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76" s="5">
+        <v>3</v>
+      </c>
+      <c r="H76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>1</v>
       </c>
@@ -4524,14 +5916,22 @@
         <v>7</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E77" s="2">
+        <v>112</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F77" s="2">
         <v>8</v>
       </c>
-      <c r="F77" s="5"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77" s="5">
+        <v>3</v>
+      </c>
+      <c r="H77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>1</v>
       </c>
@@ -4542,14 +5942,22 @@
         <v>7</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E78" s="2">
+        <v>113</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F78" s="2">
         <v>5</v>
       </c>
-      <c r="F78" s="5"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78" s="5">
+        <v>3</v>
+      </c>
+      <c r="H78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>1</v>
       </c>
@@ -4560,14 +5968,22 @@
         <v>7</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E79" s="2">
+        <v>114</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F79" s="2">
         <v>5</v>
       </c>
-      <c r="F79" s="5"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79" s="5">
+        <v>3</v>
+      </c>
+      <c r="H79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>1</v>
       </c>
@@ -4578,14 +5994,20 @@
         <v>7</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E80" s="2">
+        <v>115</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F80" s="2">
         <v>2</v>
       </c>
-      <c r="F80" s="5"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80" s="5"/>
+      <c r="H80" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>1</v>
       </c>
@@ -4596,14 +6018,22 @@
         <v>7</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E81" s="2">
+        <v>116</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F81" s="2">
         <v>8</v>
       </c>
-      <c r="F81" s="5"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" s="5">
+        <v>1</v>
+      </c>
+      <c r="H81" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>1</v>
       </c>
@@ -4614,14 +6044,22 @@
         <v>7</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E82" s="2">
+        <v>117</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F82" s="2">
         <v>8</v>
       </c>
-      <c r="F82" s="5"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82" s="5">
+        <v>1</v>
+      </c>
+      <c r="H82" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>1</v>
       </c>
@@ -4632,14 +6070,22 @@
         <v>7</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E83" s="2">
+        <v>118</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F83" s="2">
         <v>4</v>
       </c>
-      <c r="F83" s="5"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83" s="5">
+        <v>3</v>
+      </c>
+      <c r="H83" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>1</v>
       </c>
@@ -4650,14 +6096,22 @@
         <v>7</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E84" s="2">
+        <v>119</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F84" s="2">
         <v>5</v>
       </c>
-      <c r="F84" s="5"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84" s="5">
+        <v>3</v>
+      </c>
+      <c r="H84" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>1</v>
       </c>
@@ -4668,14 +6122,20 @@
         <v>7</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E85" s="2">
+        <v>120</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F85" s="2">
         <v>4</v>
       </c>
-      <c r="F85" s="5"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85" s="5"/>
+      <c r="H85" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>1</v>
       </c>
@@ -4686,14 +6146,22 @@
         <v>7</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E86" s="2">
+        <v>121</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F86" s="2">
         <v>8</v>
       </c>
-      <c r="F86" s="5"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86" s="5">
+        <v>3</v>
+      </c>
+      <c r="H86" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>1</v>
       </c>
@@ -4704,14 +6172,20 @@
         <v>7</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E87" s="2">
+        <v>122</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F87" s="2">
         <v>2</v>
       </c>
-      <c r="F87" s="5"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87" s="5"/>
+      <c r="H87" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>1</v>
       </c>
@@ -4722,14 +6196,22 @@
         <v>7</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E88" s="2">
+        <v>123</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" s="2">
         <v>5</v>
       </c>
-      <c r="F88" s="5"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88" s="5">
+        <v>3</v>
+      </c>
+      <c r="H88" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>1</v>
       </c>
@@ -4740,14 +6222,22 @@
         <v>7</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E89" s="2">
+        <v>124</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F89" s="2">
         <v>4</v>
       </c>
-      <c r="F89" s="5"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89" s="5">
+        <v>3</v>
+      </c>
+      <c r="H89" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>1</v>
       </c>
@@ -4758,14 +6248,22 @@
         <v>7</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E90" s="2">
+        <v>125</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F90" s="2">
         <v>3</v>
       </c>
-      <c r="F90" s="5"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90" s="5">
+        <v>3</v>
+      </c>
+      <c r="H90" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>1</v>
       </c>
@@ -4776,14 +6274,22 @@
         <v>7</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E91" s="2">
+        <v>126</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F91" s="2">
         <v>9</v>
       </c>
-      <c r="F91" s="5"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91" s="5">
+        <v>6</v>
+      </c>
+      <c r="H91" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>1</v>
       </c>
@@ -4794,14 +6300,22 @@
         <v>8</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E92" s="2">
+        <v>110</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F92" s="2">
         <v>9</v>
       </c>
-      <c r="F92" s="5"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92" s="5">
+        <v>6</v>
+      </c>
+      <c r="H92" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>1</v>
       </c>
@@ -4812,14 +6326,22 @@
         <v>8</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E93" s="2">
+        <v>111</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F93" s="2">
         <v>9</v>
       </c>
-      <c r="F93" s="5"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93" s="5">
+        <v>9</v>
+      </c>
+      <c r="H93" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>1</v>
       </c>
@@ -4830,12 +6352,20 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E94" s="2">
+        <v>110</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F94" s="2">
         <v>9</v>
       </c>
-      <c r="F94" s="5"/>
+      <c r="G94" s="5">
+        <v>6</v>
+      </c>
+      <c r="H94" s="2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/static/velo.xlsx
+++ b/src/main/resources/static/velo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\odenoblens\OneDrive - Manhattan Associates\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{95088353-4B78-48FF-AF4E-DF904E02E502}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{155284C9-8137-4EBD-90A1-DD3BCC4AC3D2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="forest" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="249">
   <si>
     <t>ID</t>
   </si>
@@ -90,9 +90,6 @@
     <t>PARCELLE_FORESTIERE</t>
   </si>
   <si>
-    <t>FOREST</t>
-  </si>
-  <si>
     <t>Parcelle Forestière 1</t>
   </si>
   <si>
@@ -292,12 +289,6 @@
   </si>
   <si>
     <t>C2</t>
-  </si>
-  <si>
-    <t>sdfgh</t>
-  </si>
-  <si>
-    <t>xcvbn</t>
   </si>
   <si>
     <t>C3</t>
@@ -815,6 +806,12 @@
   </si>
   <si>
     <t>Station Forestière</t>
+  </si>
+  <si>
+    <t>Rien</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -877,7 +874,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="53">
     <dxf>
       <font>
         <b val="0"/>
@@ -1836,24 +1833,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1876,33 +1855,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K2" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K2" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
   <autoFilter ref="A1:K2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="NAME" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PROPRIETAIRE" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="SITUATION_GEOGRAPHIQUE" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ZONAGE_REGLEMENTAIRE" dataDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="DROIT_USAGE" dataDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="REGION_FORESTIERE" dataDxfId="45"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="RELIEF" dataDxfId="44"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="CLIMAT" dataDxfId="43"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="TEMPERATURE" dataDxfId="42"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="GEOLOGIE" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="NAME" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PROPRIETAIRE" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="SITUATION_GEOGRAPHIQUE" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ZONAGE_REGLEMENTAIRE" dataDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="DROIT_USAGE" dataDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="REGION_FORESTIERE" dataDxfId="44"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="RELIEF" dataDxfId="43"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="CLIMAT" dataDxfId="42"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="TEMPERATURE" dataDxfId="41"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="GEOLOGIE" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:J10" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
-  <autoFilter ref="A1:J10" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="NUMERO" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="PARCELLE_FORESTIERE" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="FOREST" dataDxfId="35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:I10" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+  <autoFilter ref="A1:I10" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="NUMERO" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="PARCELLE_FORESTIERE" dataDxfId="35"/>
     <tableColumn id="5" xr3:uid="{98418B41-C27B-4E77-93A5-7BB1DC17E4E8}" name="Pente" dataDxfId="34"/>
     <tableColumn id="6" xr3:uid="{EAAE0CFE-7833-4DDA-B744-E69E3369164D}" name="Exposition" dataDxfId="33"/>
     <tableColumn id="7" xr3:uid="{78B8BFED-8E6B-4A2D-8926-5D85A31A705B}" name="Position" dataDxfId="32"/>
@@ -1941,8 +1919,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{37E77B0F-AD36-49C5-A9BB-3EB61B59A89B}" name="Table7" displayName="Table7" ref="A1:B9" totalsRowShown="0">
-  <autoFilter ref="A1:B9" xr:uid="{44E65B46-E1BE-4294-BD6B-C3A5E03B0E7E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{37E77B0F-AD36-49C5-A9BB-3EB61B59A89B}" name="Table7" displayName="Table7" ref="A1:B11" totalsRowShown="0">
+  <autoFilter ref="A1:B11" xr:uid="{44E65B46-E1BE-4294-BD6B-C3A5E03B0E7E}"/>
   <sortState ref="A2:B9">
     <sortCondition ref="A1:A9"/>
   </sortState>
@@ -2370,15 +2348,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="22.6328125" customWidth="1"/>
+    <col min="4" max="4" width="26.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2389,313 +2371,283 @@
         <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>150</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="63.5" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="101" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:9" ht="101" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>156</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>159</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="I9" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2724,19 +2676,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -2744,16 +2696,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D2" s="3">
         <v>176</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2">
         <v>0.17780000000000001</v>
@@ -2764,16 +2716,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D3" s="3">
         <v>179</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="2">
         <v>6.8400000000000002E-2</v>
@@ -2784,16 +2736,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D4" s="3">
         <v>181</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" s="2">
         <v>0.441</v>
@@ -2804,16 +2756,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D5" s="3">
         <v>183</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="2">
         <v>0.28000000000000003</v>
@@ -2824,16 +2776,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D6" s="3">
         <v>185</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="2">
         <v>0.71050000000000002</v>
@@ -2844,16 +2796,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D7" s="3">
         <v>186</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="2">
         <v>0.79249999999999998</v>
@@ -2864,16 +2816,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D8" s="3">
         <v>187</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="2">
         <v>0.80500000000000005</v>
@@ -2884,16 +2836,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="D9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F9" s="2">
         <v>0.28079999999999999</v>
@@ -2904,16 +2856,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D10" s="3">
         <v>239</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="2">
         <v>0.23419999999999999</v>
@@ -2924,16 +2876,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D11" s="3">
         <v>241</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" s="2">
         <v>0.50739999999999996</v>
@@ -2944,16 +2896,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D12" s="3">
         <v>242</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F12" s="2">
         <v>0.24010000000000001</v>
@@ -2964,16 +2916,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D13" s="3">
         <v>243</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F13" s="2">
         <v>0.30819999999999997</v>
@@ -2984,16 +2936,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D14" s="3">
         <v>244</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" s="2">
         <v>0.37</v>
@@ -3004,16 +2956,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="D15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="F15" s="2">
         <v>0.42499999999999999</v>
@@ -3024,16 +2976,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D16" s="3">
         <v>251</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" s="2">
         <v>0.53480000000000005</v>
@@ -3044,16 +2996,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D17" s="3">
         <v>252</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" s="2">
         <v>0.2591</v>
@@ -3064,16 +3016,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D18" s="3">
         <v>253</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F18" s="2">
         <v>0.90810000000000002</v>
@@ -3084,16 +3036,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D19" s="3">
         <v>257</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F19" s="2">
         <v>0.3483</v>
@@ -3104,16 +3056,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D20" s="3">
         <v>259</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F20" s="2">
         <v>0.22370000000000001</v>
@@ -3124,16 +3076,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D21" s="3">
         <v>260</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F21" s="2">
         <v>0.19400000000000001</v>
@@ -3144,16 +3096,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D22" s="3">
         <v>261</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2">
         <v>0.24</v>
@@ -3164,16 +3116,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D23" s="3">
         <v>262</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2">
         <v>0.63700000000000001</v>
@@ -3184,16 +3136,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D24" s="3">
         <v>263</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F24" s="2">
         <v>0.77200000000000002</v>
@@ -3204,16 +3156,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D25" s="3">
         <v>363</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F25" s="2">
         <v>0.2301</v>
@@ -3224,16 +3176,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D26" s="3">
         <v>365</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F26" s="2">
         <v>0.16170000000000001</v>
@@ -3244,16 +3196,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D27" s="3">
         <v>366</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F27" s="2">
         <v>0.44619999999999999</v>
@@ -3264,16 +3216,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D28" s="3">
         <v>367</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F28" s="2">
         <v>1.3680000000000001</v>
@@ -3284,16 +3236,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D29" s="3">
         <v>375</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F29" s="2">
         <v>0.64200000000000002</v>
@@ -3304,16 +3256,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D30" s="3">
         <v>377</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F30" s="2">
         <v>0.64510000000000001</v>
@@ -3324,16 +3276,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D31" s="3">
         <v>474</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F31" s="2">
         <v>1.6438999999999999</v>
@@ -3344,16 +3296,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D32" s="3">
         <v>570</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2">
         <v>6.5199999999999994E-2</v>
@@ -3364,16 +3316,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D33" s="3">
         <v>644</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F33" s="2">
         <v>0.1807</v>
@@ -3384,16 +3336,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D34" s="3">
         <v>645</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F34" s="2">
         <v>0.1807</v>
@@ -3404,16 +3356,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D35" s="3">
         <v>681</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F35" s="2">
         <v>0.67549999999999999</v>
@@ -3424,16 +3376,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D36" s="3">
         <v>840</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F36" s="2">
         <v>0.61129999999999995</v>
@@ -3444,16 +3396,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D37" s="3">
         <v>957</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F37" s="2">
         <v>1.5519000000000001</v>
@@ -3464,16 +3416,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D38" s="3">
         <v>315</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F38" s="2">
         <v>0.94199999999999995</v>
@@ -3491,7 +3443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -3510,7 +3462,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3518,7 +3470,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -3526,7 +3478,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -3534,7 +3486,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -3542,7 +3494,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -3550,7 +3502,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -3558,7 +3510,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -3566,7 +3518,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -3574,7 +3526,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -3582,7 +3534,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3595,10 +3547,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287277DE-126B-48D0-81A7-81941153CD70}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3608,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -3616,7 +3568,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3624,7 +3576,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -3632,7 +3584,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -3640,7 +3592,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -3648,7 +3600,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -3656,7 +3608,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -3664,7 +3616,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -3672,7 +3624,23 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -3687,8 +3655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3703,16 +3671,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="376" x14ac:dyDescent="0.35">
@@ -3720,16 +3688,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -3737,22 +3705,18 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -3763,7 +3727,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -3774,7 +3738,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -3785,7 +3749,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -3796,7 +3760,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -3807,7 +3771,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -3818,16 +3782,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="363.5" x14ac:dyDescent="0.35">
@@ -3835,16 +3799,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -3852,7 +3816,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -3863,7 +3827,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -3874,16 +3838,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -3891,7 +3855,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -3902,7 +3866,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -3913,10 +3877,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -3933,8 +3897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3944,33 +3908,34 @@
     <col min="3" max="3" width="16.81640625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="10.453125" customWidth="1"/>
+    <col min="7" max="7" width="10.6328125" customWidth="1"/>
     <col min="8" max="8" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -3984,10 +3949,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F2" s="2">
         <v>3</v>
@@ -4010,10 +3975,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F3" s="2">
         <v>5</v>
@@ -4036,15 +4001,17 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F4" s="2">
         <v>2</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="5">
+        <v>10</v>
+      </c>
       <c r="H4" s="2">
         <v>1</v>
       </c>
@@ -4060,10 +4027,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F5" s="2">
         <v>5</v>
@@ -4086,10 +4053,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F6" s="2">
         <v>5</v>
@@ -4112,10 +4079,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F7" s="2">
         <v>4</v>
@@ -4138,10 +4105,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F8" s="2">
         <v>4</v>
@@ -4164,10 +4131,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F9" s="2">
         <v>9</v>
@@ -4190,15 +4157,17 @@
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F10" s="2">
         <v>2</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="5">
+        <v>10</v>
+      </c>
       <c r="H10" s="2">
         <v>1</v>
       </c>
@@ -4214,10 +4183,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F11" s="2">
         <v>9</v>
@@ -4240,10 +4209,10 @@
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F12" s="2">
         <v>9</v>
@@ -4266,15 +4235,17 @@
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F13" s="2">
         <v>2</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="5">
+        <v>10</v>
+      </c>
       <c r="H13" s="2">
         <v>1</v>
       </c>
@@ -4290,10 +4261,10 @@
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F14" s="2">
         <v>9</v>
@@ -4316,10 +4287,10 @@
         <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F15" s="2">
         <v>5</v>
@@ -4342,10 +4313,10 @@
         <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F16" s="2">
         <v>5</v>
@@ -4368,10 +4339,10 @@
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F17" s="2">
         <v>4</v>
@@ -4394,10 +4365,10 @@
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F18" s="2">
         <v>4</v>
@@ -4420,10 +4391,10 @@
         <v>3</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F19" s="2">
         <v>5</v>
@@ -4446,10 +4417,10 @@
         <v>3</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F20" s="2">
         <v>4</v>
@@ -4472,10 +4443,10 @@
         <v>3</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F21" s="2">
         <v>5</v>
@@ -4498,10 +4469,10 @@
         <v>3</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F22" s="2">
         <v>5</v>
@@ -4524,10 +4495,10 @@
         <v>3</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F23" s="2">
         <v>6</v>
@@ -4550,10 +4521,10 @@
         <v>3</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F24" s="2">
         <v>5</v>
@@ -4576,10 +4547,10 @@
         <v>3</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F25" s="2">
         <v>6</v>
@@ -4602,10 +4573,10 @@
         <v>3</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F26" s="2">
         <v>5</v>
@@ -4628,10 +4599,10 @@
         <v>3</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F27" s="2">
         <v>4</v>
@@ -4654,10 +4625,10 @@
         <v>3</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F28" s="2">
         <v>4</v>
@@ -4680,10 +4651,10 @@
         <v>3</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F29" s="2">
         <v>8</v>
@@ -4706,10 +4677,10 @@
         <v>3</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F30" s="2">
         <v>8</v>
@@ -4732,10 +4703,10 @@
         <v>4</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F31" s="2">
         <v>7</v>
@@ -4758,10 +4729,10 @@
         <v>4</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F32" s="2">
         <v>9</v>
@@ -4784,10 +4755,10 @@
         <v>4</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F33" s="2">
         <v>7</v>
@@ -4810,10 +4781,10 @@
         <v>4</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F34" s="2">
         <v>7</v>
@@ -4836,10 +4807,10 @@
         <v>4</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F35" s="2">
         <v>5</v>
@@ -4862,10 +4833,10 @@
         <v>4</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F36" s="2">
         <v>6</v>
@@ -4888,10 +4859,10 @@
         <v>4</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F37" s="2">
         <v>7</v>
@@ -4914,10 +4885,10 @@
         <v>4</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F38" s="2">
         <v>9</v>
@@ -4940,10 +4911,10 @@
         <v>4</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F39" s="2">
         <v>7</v>
@@ -4966,10 +4937,10 @@
         <v>4</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F40" s="2">
         <v>9</v>
@@ -4992,10 +4963,10 @@
         <v>4</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F41" s="2">
         <v>4</v>
@@ -5018,10 +4989,10 @@
         <v>4</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F42" s="2">
         <v>4</v>
@@ -5044,10 +5015,10 @@
         <v>4</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F43" s="2">
         <v>7</v>
@@ -5070,10 +5041,10 @@
         <v>4</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F44" s="2">
         <v>4</v>
@@ -5096,15 +5067,17 @@
         <v>4</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F45" s="2">
         <v>1</v>
       </c>
-      <c r="G45" s="5"/>
+      <c r="G45" s="5">
+        <v>10</v>
+      </c>
       <c r="H45" s="2">
         <v>1</v>
       </c>
@@ -5120,10 +5093,10 @@
         <v>4</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F46" s="2">
         <v>4</v>
@@ -5146,10 +5119,10 @@
         <v>4</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F47" s="2">
         <v>7</v>
@@ -5172,10 +5145,10 @@
         <v>4</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F48" s="2">
         <v>5</v>
@@ -5198,10 +5171,10 @@
         <v>4</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F49" s="2">
         <v>5</v>
@@ -5224,10 +5197,10 @@
         <v>4</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F50" s="2">
         <v>5</v>
@@ -5250,10 +5223,10 @@
         <v>4</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F51" s="2">
         <v>8</v>
@@ -5276,10 +5249,10 @@
         <v>4</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F52" s="2">
         <v>5</v>
@@ -5302,10 +5275,10 @@
         <v>4</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F53" s="2">
         <v>5</v>
@@ -5328,10 +5301,10 @@
         <v>5</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F54" s="2">
         <v>7</v>
@@ -5354,15 +5327,17 @@
         <v>5</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F55" s="2">
         <v>7</v>
       </c>
-      <c r="G55" s="5"/>
+      <c r="G55" s="5">
+        <v>10</v>
+      </c>
       <c r="H55" s="2">
         <v>1</v>
       </c>
@@ -5378,15 +5353,17 @@
         <v>5</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F56" s="2">
         <v>7</v>
       </c>
-      <c r="G56" s="5"/>
+      <c r="G56" s="5">
+        <v>10</v>
+      </c>
       <c r="H56" s="2">
         <v>1</v>
       </c>
@@ -5402,10 +5379,10 @@
         <v>6</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F57" s="2">
         <v>8</v>
@@ -5428,10 +5405,10 @@
         <v>6</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F58" s="2">
         <v>7</v>
@@ -5454,10 +5431,10 @@
         <v>6</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F59" s="2">
         <v>7</v>
@@ -5480,10 +5457,10 @@
         <v>6</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F60" s="2">
         <v>5</v>
@@ -5506,10 +5483,10 @@
         <v>6</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F61" s="2">
         <v>4</v>
@@ -5532,10 +5509,10 @@
         <v>6</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F62" s="2">
         <v>5</v>
@@ -5558,10 +5535,10 @@
         <v>6</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F63" s="2">
         <v>5</v>
@@ -5584,10 +5561,10 @@
         <v>6</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F64" s="2">
         <v>4</v>
@@ -5610,15 +5587,17 @@
         <v>6</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F65" s="2">
         <v>2</v>
       </c>
-      <c r="G65" s="5"/>
+      <c r="G65" s="5">
+        <v>10</v>
+      </c>
       <c r="H65" s="2">
         <v>1</v>
       </c>
@@ -5634,15 +5613,17 @@
         <v>6</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F66" s="2">
         <v>3</v>
       </c>
-      <c r="G66" s="5"/>
+      <c r="G66" s="5">
+        <v>10</v>
+      </c>
       <c r="H66" s="2">
         <v>1</v>
       </c>
@@ -5658,10 +5639,10 @@
         <v>6</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F67" s="2">
         <v>10</v>
@@ -5684,10 +5665,10 @@
         <v>6</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F68" s="2">
         <v>8</v>
@@ -5710,10 +5691,10 @@
         <v>6</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F69" s="2">
         <v>5</v>
@@ -5736,15 +5717,17 @@
         <v>6</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F70" s="2">
         <v>2</v>
       </c>
-      <c r="G70" s="5"/>
+      <c r="G70" s="5">
+        <v>10</v>
+      </c>
       <c r="H70" s="2">
         <v>1</v>
       </c>
@@ -5760,10 +5743,10 @@
         <v>6</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F71" s="2">
         <v>8</v>
@@ -5786,10 +5769,10 @@
         <v>6</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F72" s="2">
         <v>7</v>
@@ -5812,10 +5795,10 @@
         <v>6</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F73" s="2">
         <v>7</v>
@@ -5838,10 +5821,10 @@
         <v>6</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F74" s="2">
         <v>7</v>
@@ -5864,10 +5847,10 @@
         <v>7</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F75" s="2">
         <v>8</v>
@@ -5890,10 +5873,10 @@
         <v>7</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F76" s="2">
         <v>5</v>
@@ -5916,10 +5899,10 @@
         <v>7</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F77" s="2">
         <v>8</v>
@@ -5942,10 +5925,10 @@
         <v>7</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F78" s="2">
         <v>5</v>
@@ -5968,10 +5951,10 @@
         <v>7</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F79" s="2">
         <v>5</v>
@@ -5994,15 +5977,17 @@
         <v>7</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F80" s="2">
         <v>2</v>
       </c>
-      <c r="G80" s="5"/>
+      <c r="G80" s="5">
+        <v>10</v>
+      </c>
       <c r="H80" s="2">
         <v>1</v>
       </c>
@@ -6018,10 +6003,10 @@
         <v>7</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F81" s="2">
         <v>8</v>
@@ -6044,10 +6029,10 @@
         <v>7</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F82" s="2">
         <v>8</v>
@@ -6070,10 +6055,10 @@
         <v>7</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F83" s="2">
         <v>4</v>
@@ -6096,10 +6081,10 @@
         <v>7</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F84" s="2">
         <v>5</v>
@@ -6122,15 +6107,17 @@
         <v>7</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F85" s="2">
         <v>4</v>
       </c>
-      <c r="G85" s="5"/>
+      <c r="G85" s="5">
+        <v>10</v>
+      </c>
       <c r="H85" s="2">
         <v>1</v>
       </c>
@@ -6146,10 +6133,10 @@
         <v>7</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F86" s="2">
         <v>8</v>
@@ -6172,15 +6159,17 @@
         <v>7</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F87" s="2">
         <v>2</v>
       </c>
-      <c r="G87" s="5"/>
+      <c r="G87" s="5">
+        <v>10</v>
+      </c>
       <c r="H87" s="2">
         <v>1</v>
       </c>
@@ -6196,10 +6185,10 @@
         <v>7</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F88" s="2">
         <v>5</v>
@@ -6222,10 +6211,10 @@
         <v>7</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F89" s="2">
         <v>4</v>
@@ -6248,10 +6237,10 @@
         <v>7</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F90" s="2">
         <v>3</v>
@@ -6274,10 +6263,10 @@
         <v>7</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F91" s="2">
         <v>9</v>
@@ -6300,10 +6289,10 @@
         <v>8</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F92" s="2">
         <v>9</v>
@@ -6326,10 +6315,10 @@
         <v>8</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F93" s="2">
         <v>9</v>
@@ -6352,10 +6341,10 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F94" s="2">
         <v>9</v>
